--- a/biology/Botanique/Béquignol_blanc/Béquignol_blanc.xlsx
+++ b/biology/Botanique/Béquignol_blanc/Béquignol_blanc.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>B%C3%A9quignol_blanc</t>
+          <t>Béquignol_blanc</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le béquignol blanc est un cépage français de raisins blancs.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>B%C3%A9quignol_blanc</t>
+          <t>Béquignol_blanc</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Origine et répartition géographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il provient du Bordelais ou du Sud-Ouest. Il est une variété du béquignol et il est cultivé dans les Pyrénées-Atlantiques. Le cépage est sans intérêt commercial.
 Sont aussi connues les variétés béquignol et béquignol gris.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>B%C3%A9quignol_blanc</t>
+          <t>Béquignol_blanc</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Caractères ampélographiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Extrémité du jeune rameau épanoui, cotonneux blanc à liseré carminé.
 Jeunes feuilles duveteuses à plages bronzées.
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>B%C3%A9quignol_blanc</t>
+          <t>Béquignol_blanc</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,7 +592,9 @@
           <t>Aptitudes culturales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce cépage débourre quelques jours après le Chasselas et sa maturité est de deuxième époque : 10 jours après le Chasselas.
 C'est un cépage de bonne vigueur mais peu productif. Pour obtenir une récolte satisfaisante, on le taille long.
@@ -590,7 +608,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>B%C3%A9quignol_blanc</t>
+          <t>Béquignol_blanc</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -608,7 +626,9 @@
           <t>Potentiel technologique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les grappes sont de taille petites à moyennes et les baies sont moyennes. Le cépage est sensible à l'oïdium mais assez résistant au mildiou et aux gelées d'hiver.
 </t>
@@ -621,7 +641,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>B%C3%A9quignol_blanc</t>
+          <t>Béquignol_blanc</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -639,7 +659,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">néant
 </t>
